--- a/data/trans_orig/Q02D_FES-Clase-trans_orig.xlsx
+++ b/data/trans_orig/Q02D_FES-Clase-trans_orig.xlsx
@@ -669,7 +669,7 @@
         <v>7.857350900430154</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>9.434430088127806</v>
+        <v>9.434430088127808</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>6.739457756506131</v>
@@ -681,7 +681,7 @@
         <v>11.3076467876211</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>9.527347650126444</v>
+        <v>9.527347650126442</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>5.368984469560149</v>
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>3.462613361169772</v>
+        <v>3.41942072977138</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>4.312689886202121</v>
+        <v>4.380791679258</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>6.606257625053923</v>
+        <v>6.586696389447422</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>7.419659798778628</v>
+        <v>7.296424031540901</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>5.608087687224031</v>
+        <v>5.601321647624983</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>6.138477008242135</v>
+        <v>6.201004525968893</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>10.08882091195827</v>
+        <v>10.11439150625076</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>8.093730424510039</v>
+        <v>8.107194948409342</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>4.696512845894035</v>
+        <v>4.704120170912842</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>5.486032718406195</v>
+        <v>5.519210925690666</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>8.929540745732774</v>
+        <v>8.845247621941017</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>8.197714774640433</v>
+        <v>8.270942629316558</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>5.157319030566605</v>
+        <v>5.070485289812423</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>5.407600941757654</v>
+        <v>5.392629755541239</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>9.500274110037919</v>
+        <v>9.329745418069427</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>11.83247244371039</v>
+        <v>11.9513957812155</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>8.204504385130155</v>
+        <v>8.054740965956332</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>7.567541686689374</v>
+        <v>7.579106407115584</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>12.64222587404348</v>
+        <v>12.63859438801948</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>11.43949999077175</v>
+        <v>11.5313386098742</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>6.16882914432558</v>
+        <v>6.224148190413968</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>6.39179509254002</v>
+        <v>6.378031341773544</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>10.95824189517456</v>
+        <v>10.8655276024523</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>10.84013888587225</v>
+        <v>11.1624474758175</v>
       </c>
     </row>
     <row r="7">
@@ -805,7 +805,7 @@
         <v>9.334385325549244</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>5.228240168275449</v>
+        <v>5.228240168275448</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>7.846391698820572</v>
@@ -817,7 +817,7 @@
         <v>11.18630551465762</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>10.01802977596355</v>
+        <v>10.01802977596356</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>6.632902419585069</v>
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>3.424185475056108</v>
+        <v>3.446964785179953</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>4.706445762118168</v>
+        <v>4.701532317279709</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>8.026552201430231</v>
+        <v>7.983683113404978</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>4.265139263906731</v>
+        <v>4.159428625075922</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>6.916891685900954</v>
+        <v>6.748878523893727</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>6.924762153504595</v>
+        <v>6.950867290385775</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>10.10019976785146</v>
+        <v>10.1433097610103</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>8.150070342784641</v>
+        <v>8.009676583861534</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>5.817053573921037</v>
+        <v>5.82744081709246</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>6.170092054175749</v>
+        <v>6.079661050474433</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>9.594127138933683</v>
+        <v>9.547631770893922</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>6.790912532662902</v>
+        <v>6.69438458059379</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>6.235236156065347</v>
+        <v>5.986726406736067</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>6.054260265539402</v>
+        <v>6.07874440552143</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>10.86009437913701</v>
+        <v>10.79356634103453</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>6.503337554904615</v>
+        <v>6.214711326806914</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>9.093685271365185</v>
+        <v>9.099018201546007</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>8.250384751184088</v>
+        <v>8.263681665259641</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>12.42008897851276</v>
+        <v>12.344191481914</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>13.24822802192696</v>
+        <v>13.03353908007519</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>7.545112535908568</v>
+        <v>7.550994928576661</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>7.10963552208735</v>
+        <v>7.096287679709715</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>11.36992199826235</v>
+        <v>11.3558409976473</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>10.28064914386939</v>
+        <v>10.11345157902812</v>
       </c>
     </row>
     <row r="10">
@@ -941,7 +941,7 @@
         <v>8.646269501007023</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>7.938933653855996</v>
+        <v>7.938933653855998</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>5.925013550202427</v>
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>3.907741175126774</v>
+        <v>3.873040296006176</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>5.265582003404899</v>
+        <v>5.159716046282762</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>7.4346105204734</v>
+        <v>7.436101850809015</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>5.979649931788559</v>
+        <v>5.935252042306489</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>4.819701310057535</v>
+        <v>4.875663320146526</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>5.801882921443631</v>
+        <v>5.690303793311484</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>7.286067763043554</v>
+        <v>7.243841642732113</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>8.028552040375775</v>
+        <v>7.737690401896113</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>4.436481247418425</v>
+        <v>4.460968748911746</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>5.610920852935553</v>
+        <v>5.55166061383499</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>7.650126592642413</v>
+        <v>7.723951180800373</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>6.934947621490521</v>
+        <v>6.808612325614164</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>5.653813189686588</v>
+        <v>5.633209361150069</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>6.437727441646873</v>
+        <v>6.368433275571214</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>10.08362254925621</v>
+        <v>9.907593847473404</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>11.48335654506529</v>
+        <v>11.82801808520322</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>7.167052675579447</v>
+        <v>7.195566826246784</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>7.214034593640023</v>
+        <v>7.192848440624667</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>11.01884975085961</v>
+        <v>10.96737487591487</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>15.18467022713697</v>
+        <v>14.43598511784708</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>5.894875266273748</v>
+        <v>5.845917480112446</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>6.49039801299532</v>
+        <v>6.473771120910699</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>9.857386971045717</v>
+        <v>9.828948840194746</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>11.38683139180029</v>
+        <v>11.15292722772688</v>
       </c>
     </row>
     <row r="13">
@@ -1077,7 +1077,7 @@
         <v>8.859947498684116</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>7.205501853814782</v>
+        <v>7.205501853814781</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>7.326363160228548</v>
@@ -1089,7 +1089,7 @@
         <v>10.61754030187653</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>9.95979993207663</v>
+        <v>9.959799932076631</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>6.22837448934775</v>
@@ -1101,7 +1101,7 @@
         <v>9.829787445371135</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>8.619209921085227</v>
+        <v>8.619209921085229</v>
       </c>
     </row>
     <row r="14">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>4.45406477568938</v>
+        <v>4.47319553552225</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>5.060641493566182</v>
+        <v>5.073278780975303</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>7.929106207063151</v>
+        <v>7.9960824840384</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>6.257420006547165</v>
+        <v>6.322782545187549</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>6.55375279889474</v>
+        <v>6.499616252460426</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>6.839188478461475</v>
+        <v>6.834595317622767</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>9.847793958535457</v>
+        <v>9.771965318456422</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>8.972228989322476</v>
+        <v>8.864285587550913</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>5.678252106509457</v>
+        <v>5.721116773047508</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>6.127991869564466</v>
+        <v>6.135220861671169</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>9.181901953995023</v>
+        <v>9.212189842627309</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>7.852037117480222</v>
+        <v>7.891374276532066</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>5.845716150839941</v>
+        <v>5.875048820447187</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>5.923607092306163</v>
+        <v>5.9568566914958</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>9.775511115831605</v>
+        <v>9.969790454785072</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>8.697872627985173</v>
+        <v>8.726288169133449</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>8.380941802771362</v>
+        <v>8.275148514689029</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>7.674067847658711</v>
+        <v>7.691193923446725</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>11.59488021127482</v>
+        <v>11.57012684339648</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>11.12486720030005</v>
+        <v>11.13715457934134</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>6.796897447556507</v>
+        <v>6.861244758060089</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>6.77956205109799</v>
+        <v>6.755269041877436</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>10.4693926343366</v>
+        <v>10.48764142628328</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>9.57164661276544</v>
+        <v>9.446156582709831</v>
       </c>
     </row>
     <row r="16">
@@ -1225,7 +1225,7 @@
         <v>9.005798833076595</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>8.48772641179575</v>
+        <v>8.487726411795746</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>7.355580215746252</v>
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>4.363209002468903</v>
+        <v>4.450787863611445</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>4.880533787820534</v>
+        <v>4.834021419567156</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>6.778905851652675</v>
+        <v>6.852986567467335</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>5.488447621339233</v>
+        <v>5.500706077974932</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>6.961775325356182</v>
+        <v>6.931837004650791</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>6.788665861714716</v>
+        <v>6.760825408555729</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>8.157847800740544</v>
+        <v>8.143420089995026</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>7.672786539134147</v>
+        <v>7.728384432213376</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>6.510750983712785</v>
+        <v>6.56241405000784</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>6.361510210049532</v>
+        <v>6.402654625381205</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>7.881384804439466</v>
+        <v>7.910512885055206</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>7.407638258913783</v>
+        <v>7.44034995293372</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>7.758059121313081</v>
+        <v>7.823141123946203</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>6.236549260119465</v>
+        <v>6.198678434999512</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>9.376025709923825</v>
+        <v>9.461403235235105</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>9.013626853982196</v>
+        <v>9.266667498194792</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>8.917399104537942</v>
+        <v>8.906017064045711</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>7.729302805428217</v>
+        <v>7.80597649144652</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>9.974636464563211</v>
+        <v>9.969180391421252</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>9.444120215622165</v>
+        <v>9.390503567019199</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>8.222433535272955</v>
+        <v>8.231202501453271</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>7.173119664417395</v>
+        <v>7.242243318813195</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>9.377409074481406</v>
+        <v>9.41796754509987</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>8.992882135547516</v>
+        <v>9.037850713885403</v>
       </c>
     </row>
     <row r="19">
@@ -1361,7 +1361,7 @@
         <v>9.615162133431081</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>6.993979875461742</v>
+        <v>6.99397987546174</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>6.534044522758268</v>
@@ -1384,40 +1384,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>2.875441670749345</v>
+        <v>2.779563275867946</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>1.771761282168755</v>
+        <v>1.770003755284806</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2.809981951034738</v>
+        <v>3.11574720654267</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>2</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>5.736312382296954</v>
+        <v>5.770828494321864</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>6.39626977594878</v>
+        <v>6.364120476058931</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>8.534437615059849</v>
+        <v>8.55017275526744</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>5.674764230327879</v>
+        <v>5.763467957684758</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>5.769710022648109</v>
+        <v>5.737933312958031</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>6.243957566737872</v>
+        <v>6.261455509812076</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>8.219651523609874</v>
+        <v>8.19285738763093</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>5.289181564464179</v>
+        <v>5.277949031763939</v>
       </c>
     </row>
     <row r="21">
@@ -1428,40 +1428,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>14.66728027898236</v>
+        <v>14.16610255995826</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>4.172404972521821</v>
+        <v>4.148305462354567</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>9.918932523701832</v>
+        <v>10.40730805247913</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>5.886208913816166</v>
+        <v>7.561753714558868</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>7.318478711029719</v>
+        <v>7.443500720160601</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>7.455819859061993</v>
+        <v>7.378931385491899</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>10.7539333244064</v>
+        <v>10.87501522703453</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>8.673992397108375</v>
+        <v>8.753315527115396</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>7.396348722039037</v>
+        <v>7.342584347719453</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>7.326341266465412</v>
+        <v>7.305995827954589</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>10.35933737990122</v>
+        <v>10.29332262629235</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>8.108876286180569</v>
+        <v>8.109238585789265</v>
       </c>
     </row>
     <row r="22">
@@ -1485,7 +1485,7 @@
         <v>8.496711081217933</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>7.219714134408479</v>
+        <v>7.219714134408478</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>7.150638132124056</v>
@@ -1497,7 +1497,7 @@
         <v>10.16810314749065</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>8.923812534300724</v>
+        <v>8.923812534300723</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>6.262025238294241</v>
@@ -1509,7 +1509,7 @@
         <v>9.49394610961399</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>8.276402406186262</v>
+        <v>8.276402406186261</v>
       </c>
     </row>
     <row r="23">
@@ -1520,40 +1520,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>4.444556658695483</v>
+        <v>4.435657810880872</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>5.169062918960689</v>
+        <v>5.154888059410511</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>7.984006882503341</v>
+        <v>7.978341983160823</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>6.527308751616699</v>
+        <v>6.473139211241172</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>6.706654144931029</v>
+        <v>6.756106208193627</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>6.893622386999051</v>
+        <v>6.932534751066447</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>9.707332834767788</v>
+        <v>9.777059697623729</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>8.324406032563337</v>
+        <v>8.277827061030884</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>5.96890402124645</v>
+        <v>5.942070602757406</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>6.284263121539458</v>
+        <v>6.278195111748378</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>9.159063264142061</v>
+        <v>9.139730112782438</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>7.793814701697575</v>
+        <v>7.795449897680191</v>
       </c>
     </row>
     <row r="24">
@@ -1564,40 +1564,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>5.339652413452532</v>
+        <v>5.266582938386034</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>5.668374495958709</v>
+        <v>5.66783657907555</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>9.062486215783489</v>
+        <v>9.041916527587651</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>8.190140376049772</v>
+        <v>8.175016836030284</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>7.554993686701559</v>
+        <v>7.562753078495394</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>7.366749333724365</v>
+        <v>7.382922586684748</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>10.64235879355718</v>
+        <v>10.70206680343583</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>9.56542129979095</v>
+        <v>9.624411485827073</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>6.564103966349184</v>
+        <v>6.573726885134892</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>6.623188061657454</v>
+        <v>6.635296526050267</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>9.853166696670199</v>
+        <v>9.83651679631269</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>8.776719109283546</v>
+        <v>8.783974076162131</v>
       </c>
     </row>
     <row r="25">
